--- a/DwellScanningEyeTrack/img_training/Week11/map8.xlsx
+++ b/DwellScanningEyeTrack/img_training/Week11/map8.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\עמית 1 נוב 2013\פוסט\collaborations GCMRT\DP studies - NIH\Training task\Final - mixed blocks\Block 8\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\עמית 1 נוב 2013\פוסט\collaborations GCMRT\DP studies - NIH\Training task\Take 2\Final - mixed blocks\Block 8\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="גיליון1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -90,10 +90,10 @@
     <t>block 8 matrix 1.bmp</t>
   </si>
   <si>
+    <t>NE</t>
+  </si>
+  <si>
     <t>DI</t>
-  </si>
-  <si>
-    <t>NE</t>
   </si>
   <si>
     <t>block 8 matrix 2.bmp</t>
@@ -1006,19 +1006,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A17" sqref="A17:XFD31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.06640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="2.9296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.73046875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.53125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.1328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.3984375" bestFit="1" customWidth="1"/>
-    <col min="6" max="14" width="4.796875" bestFit="1" customWidth="1"/>
-    <col min="15" max="21" width="5.86328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.46484375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.53125" bestFit="1" customWidth="1"/>
+    <col min="6" max="13" width="9.46484375" bestFit="1" customWidth="1"/>
+    <col min="14" max="21" width="10.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -1109,16 +1106,16 @@
         <v>23</v>
       </c>
       <c r="I2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M2" t="s">
         <v>24</v>
@@ -1127,25 +1124,25 @@
         <v>24</v>
       </c>
       <c r="O2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Q2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="R2" t="s">
         <v>23</v>
       </c>
       <c r="S2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="T2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="U2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -1162,7 +1159,7 @@
         <v>25</v>
       </c>
       <c r="F3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G3" t="s">
         <v>23</v>
@@ -1174,10 +1171,10 @@
         <v>23</v>
       </c>
       <c r="J3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L3" t="s">
         <v>24</v>
@@ -1186,10 +1183,10 @@
         <v>23</v>
       </c>
       <c r="N3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P3" t="s">
         <v>23</v>
@@ -1201,13 +1198,13 @@
         <v>24</v>
       </c>
       <c r="S3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="T3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="U3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -1224,10 +1221,10 @@
         <v>26</v>
       </c>
       <c r="F4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H4" t="s">
         <v>24</v>
@@ -1236,16 +1233,16 @@
         <v>23</v>
       </c>
       <c r="J4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K4" t="s">
         <v>23</v>
       </c>
       <c r="L4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N4" t="s">
         <v>24</v>
@@ -1254,7 +1251,7 @@
         <v>24</v>
       </c>
       <c r="P4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Q4" t="s">
         <v>24</v>
@@ -1263,13 +1260,13 @@
         <v>23</v>
       </c>
       <c r="S4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="T4" t="s">
         <v>23</v>
       </c>
       <c r="U4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -1286,49 +1283,49 @@
         <v>27</v>
       </c>
       <c r="F5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L5" t="s">
         <v>24</v>
       </c>
       <c r="M5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N5" t="s">
         <v>23</v>
       </c>
       <c r="O5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P5" t="s">
         <v>23</v>
       </c>
       <c r="Q5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="R5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="T5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="U5" t="s">
         <v>24</v>
@@ -1348,7 +1345,7 @@
         <v>28</v>
       </c>
       <c r="F6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G6" t="s">
         <v>23</v>
@@ -1357,40 +1354,40 @@
         <v>24</v>
       </c>
       <c r="I6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K6" t="s">
         <v>24</v>
       </c>
       <c r="L6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M6" t="s">
         <v>24</v>
       </c>
       <c r="N6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O6" t="s">
         <v>23</v>
       </c>
       <c r="P6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Q6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="R6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="S6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="T6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="U6" t="s">
         <v>23</v>
@@ -1410,49 +1407,49 @@
         <v>29</v>
       </c>
       <c r="F7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I7" t="s">
         <v>24</v>
       </c>
       <c r="J7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K7" t="s">
         <v>23</v>
       </c>
       <c r="L7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M7" t="s">
         <v>23</v>
       </c>
       <c r="N7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O7" t="s">
         <v>24</v>
       </c>
       <c r="P7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Q7" t="s">
         <v>24</v>
       </c>
       <c r="R7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="T7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="U7" t="s">
         <v>23</v>
@@ -1472,10 +1469,10 @@
         <v>30</v>
       </c>
       <c r="F8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H8" t="s">
         <v>23</v>
@@ -1487,37 +1484,37 @@
         <v>23</v>
       </c>
       <c r="K8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N8" t="s">
         <v>24</v>
       </c>
       <c r="O8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Q8" t="s">
         <v>24</v>
       </c>
       <c r="R8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="S8" t="s">
         <v>23</v>
       </c>
       <c r="T8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="U8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -1540,46 +1537,46 @@
         <v>23</v>
       </c>
       <c r="H9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L9" t="s">
         <v>24</v>
       </c>
       <c r="M9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O9" t="s">
         <v>23</v>
       </c>
       <c r="P9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Q9" t="s">
         <v>24</v>
       </c>
       <c r="R9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="S9" t="s">
         <v>23</v>
       </c>
       <c r="T9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="U9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -1596,10 +1593,10 @@
         <v>32</v>
       </c>
       <c r="F10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H10" t="s">
         <v>24</v>
@@ -1608,7 +1605,7 @@
         <v>23</v>
       </c>
       <c r="J10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K10" t="s">
         <v>24</v>
@@ -1629,16 +1626,16 @@
         <v>24</v>
       </c>
       <c r="Q10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="R10" t="s">
         <v>23</v>
       </c>
       <c r="S10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="T10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="U10" t="s">
         <v>24</v>
@@ -1658,7 +1655,7 @@
         <v>33</v>
       </c>
       <c r="F11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G11" t="s">
         <v>24</v>
@@ -1667,13 +1664,13 @@
         <v>24</v>
       </c>
       <c r="I11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J11" t="s">
         <v>24</v>
       </c>
       <c r="K11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L11" t="s">
         <v>24</v>
@@ -1682,13 +1679,13 @@
         <v>23</v>
       </c>
       <c r="N11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O11" t="s">
         <v>23</v>
       </c>
       <c r="P11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Q11" t="s">
         <v>23</v>
@@ -1700,7 +1697,7 @@
         <v>23</v>
       </c>
       <c r="T11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="U11" t="s">
         <v>24</v>
@@ -1720,7 +1717,7 @@
         <v>34</v>
       </c>
       <c r="F12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G12" t="s">
         <v>23</v>
@@ -1732,40 +1729,40 @@
         <v>24</v>
       </c>
       <c r="J12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Q12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="R12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="S12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="T12" t="s">
         <v>23</v>
       </c>
       <c r="U12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -1788,19 +1785,19 @@
         <v>24</v>
       </c>
       <c r="H13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I13" t="s">
         <v>23</v>
       </c>
       <c r="J13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M13" t="s">
         <v>24</v>
@@ -1809,10 +1806,10 @@
         <v>23</v>
       </c>
       <c r="O13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Q13" t="s">
         <v>23</v>
@@ -1844,13 +1841,13 @@
         <v>36</v>
       </c>
       <c r="F14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G14" t="s">
         <v>23</v>
       </c>
       <c r="H14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I14" t="s">
         <v>23</v>
@@ -1865,7 +1862,7 @@
         <v>23</v>
       </c>
       <c r="M14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N14" t="s">
         <v>24</v>
@@ -1877,7 +1874,7 @@
         <v>24</v>
       </c>
       <c r="Q14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="R14" t="s">
         <v>23</v>
@@ -1886,10 +1883,10 @@
         <v>24</v>
       </c>
       <c r="T14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="U14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -1906,7 +1903,7 @@
         <v>37</v>
       </c>
       <c r="F15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G15" t="s">
         <v>24</v>
@@ -1915,43 +1912,43 @@
         <v>24</v>
       </c>
       <c r="I15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J15" t="s">
         <v>23</v>
       </c>
       <c r="K15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M15" t="s">
         <v>24</v>
       </c>
       <c r="N15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Q15" t="s">
         <v>23</v>
       </c>
       <c r="R15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="S15" t="s">
         <v>23</v>
       </c>
       <c r="T15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="U15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -1977,7 +1974,7 @@
         <v>23</v>
       </c>
       <c r="I16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J16" t="s">
         <v>24</v>
@@ -1989,31 +1986,31 @@
         <v>24</v>
       </c>
       <c r="M16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Q16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="R16" t="s">
         <v>24</v>
       </c>
       <c r="S16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="T16" t="s">
         <v>23</v>
       </c>
       <c r="U16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -2033,7 +2030,7 @@
         <v>23</v>
       </c>
       <c r="G17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H17" t="s">
         <v>23</v>
@@ -2045,37 +2042,37 @@
         <v>24</v>
       </c>
       <c r="K17" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M17" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N17" t="s">
         <v>23</v>
       </c>
       <c r="O17" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Q17" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="R17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S17" t="s">
         <v>24</v>
       </c>
       <c r="T17" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="U17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -2104,13 +2101,13 @@
         <v>24</v>
       </c>
       <c r="J18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M18" t="s">
         <v>24</v>
@@ -2137,7 +2134,7 @@
         <v>23</v>
       </c>
       <c r="U18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -2154,7 +2151,7 @@
         <v>41</v>
       </c>
       <c r="F19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G19" t="s">
         <v>24</v>
@@ -2163,7 +2160,7 @@
         <v>24</v>
       </c>
       <c r="I19" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J19" t="s">
         <v>23</v>
@@ -2172,16 +2169,16 @@
         <v>24</v>
       </c>
       <c r="L19" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N19" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P19" t="s">
         <v>23</v>
@@ -2190,10 +2187,10 @@
         <v>23</v>
       </c>
       <c r="R19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S19" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="T19" t="s">
         <v>23</v>
@@ -2219,22 +2216,22 @@
         <v>24</v>
       </c>
       <c r="G20" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H20" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K20" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L20" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M20" t="s">
         <v>24</v>
@@ -2243,22 +2240,22 @@
         <v>24</v>
       </c>
       <c r="O20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Q20" t="s">
         <v>23</v>
       </c>
       <c r="R20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S20" t="s">
         <v>23</v>
       </c>
       <c r="T20" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="U20" t="s">
         <v>23</v>
@@ -2278,7 +2275,7 @@
         <v>43</v>
       </c>
       <c r="F21" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G21" t="s">
         <v>24</v>
@@ -2290,40 +2287,40 @@
         <v>24</v>
       </c>
       <c r="J21" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K21" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M21" t="s">
         <v>23</v>
       </c>
       <c r="N21" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P21" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Q21" t="s">
         <v>23</v>
       </c>
       <c r="R21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="T21" t="s">
         <v>23</v>
       </c>
       <c r="U21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="22" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -2340,16 +2337,16 @@
         <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H22" t="s">
         <v>24</v>
       </c>
       <c r="I22" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J22" t="s">
         <v>24</v>
@@ -2364,7 +2361,7 @@
         <v>23</v>
       </c>
       <c r="N22" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O22" t="s">
         <v>24</v>
@@ -2376,7 +2373,7 @@
         <v>23</v>
       </c>
       <c r="R22" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="S22" t="s">
         <v>24</v>
@@ -2385,7 +2382,7 @@
         <v>23</v>
       </c>
       <c r="U22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="23" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -2405,7 +2402,7 @@
         <v>23</v>
       </c>
       <c r="G23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H23" t="s">
         <v>23</v>
@@ -2414,7 +2411,7 @@
         <v>23</v>
       </c>
       <c r="J23" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K23" t="s">
         <v>23</v>
@@ -2429,19 +2426,19 @@
         <v>24</v>
       </c>
       <c r="O23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P23" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Q23" t="s">
         <v>24</v>
       </c>
       <c r="R23" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="S23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="T23" t="s">
         <v>24</v>
@@ -2467,16 +2464,16 @@
         <v>24</v>
       </c>
       <c r="G24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H24" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I24" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K24" t="s">
         <v>23</v>
@@ -2485,10 +2482,10 @@
         <v>23</v>
       </c>
       <c r="M24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N24" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O24" t="s">
         <v>24</v>
@@ -2503,10 +2500,10 @@
         <v>23</v>
       </c>
       <c r="S24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="T24" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="U24" t="s">
         <v>23</v>
@@ -2526,13 +2523,13 @@
         <v>47</v>
       </c>
       <c r="F25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G25" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H25" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I25" t="s">
         <v>23</v>
@@ -2541,34 +2538,34 @@
         <v>24</v>
       </c>
       <c r="K25" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L25" t="s">
         <v>23</v>
       </c>
       <c r="M25" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O25" t="s">
         <v>24</v>
       </c>
       <c r="P25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Q25" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="R25" t="s">
         <v>23</v>
       </c>
       <c r="S25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="T25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="U25" t="s">
         <v>24</v>
@@ -2594,7 +2591,7 @@
         <v>23</v>
       </c>
       <c r="H26" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I26" t="s">
         <v>23</v>
@@ -2603,22 +2600,22 @@
         <v>23</v>
       </c>
       <c r="K26" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L26" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M26" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N26" t="s">
         <v>24</v>
       </c>
       <c r="O26" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P26" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Q26" t="s">
         <v>24</v>
@@ -2630,10 +2627,10 @@
         <v>24</v>
       </c>
       <c r="T26" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="U26" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="27" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -2650,7 +2647,7 @@
         <v>49</v>
       </c>
       <c r="F27" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G27" t="s">
         <v>23</v>
@@ -2662,28 +2659,28 @@
         <v>24</v>
       </c>
       <c r="J27" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K27" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L27" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M27" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N27" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O27" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P27" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Q27" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="R27" t="s">
         <v>23</v>
@@ -2692,7 +2689,7 @@
         <v>24</v>
       </c>
       <c r="T27" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="U27" t="s">
         <v>24</v>
@@ -2718,7 +2715,7 @@
         <v>24</v>
       </c>
       <c r="H28" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I28" t="s">
         <v>24</v>
@@ -2727,22 +2724,22 @@
         <v>24</v>
       </c>
       <c r="K28" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L28" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M28" t="s">
         <v>23</v>
       </c>
       <c r="N28" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O28" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P28" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Q28" t="s">
         <v>23</v>
@@ -2754,10 +2751,10 @@
         <v>23</v>
       </c>
       <c r="T28" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="U28" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="29" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -2786,13 +2783,13 @@
         <v>24</v>
       </c>
       <c r="J29" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K29" t="s">
         <v>23</v>
       </c>
       <c r="L29" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M29" t="s">
         <v>23</v>
@@ -2801,22 +2798,22 @@
         <v>24</v>
       </c>
       <c r="O29" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P29" t="s">
         <v>24</v>
       </c>
       <c r="Q29" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="R29" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S29" t="s">
         <v>24</v>
       </c>
       <c r="T29" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="U29" t="s">
         <v>24</v>
@@ -2836,13 +2833,13 @@
         <v>52</v>
       </c>
       <c r="F30" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G30" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H30" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I30" t="s">
         <v>23</v>
@@ -2851,10 +2848,10 @@
         <v>24</v>
       </c>
       <c r="K30" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L30" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M30" t="s">
         <v>23</v>
@@ -2869,10 +2866,10 @@
         <v>24</v>
       </c>
       <c r="Q30" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="R30" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="S30" t="s">
         <v>24</v>
@@ -2881,7 +2878,7 @@
         <v>23</v>
       </c>
       <c r="U30" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="31" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -2907,16 +2904,16 @@
         <v>24</v>
       </c>
       <c r="I31" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J31" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K31" t="s">
         <v>24</v>
       </c>
       <c r="L31" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M31" t="s">
         <v>23</v>
@@ -2925,25 +2922,25 @@
         <v>23</v>
       </c>
       <c r="O31" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P31" t="s">
         <v>23</v>
       </c>
       <c r="Q31" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="R31" t="s">
         <v>24</v>
       </c>
       <c r="S31" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="T31" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="U31" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
